--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-651013.5407468799</v>
+        <v>-655727.4517012439</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516702</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12457553.58846603</v>
+        <v>12455193.67090435</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>19.20635299867013</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>375.2795348744104</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>47.6314705640569</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104614621</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.42923014447381</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>114.7890777533882</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>283.781668391721</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>219.9125066314495</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968061</v>
+        <v>50.64353720722485</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.52529077486081</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>194.9632162960285</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>372.4089305243873</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>39.94329733100877</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,7 +1148,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>128.5631274482085</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -1348,10 +1348,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>23.07869429521004</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>74.17441438741943</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>100.3849566518576</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>30.59569413649048</v>
+        <v>2.50956299814738</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>255.0487374028753</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.37074671830635</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>85.56863589323342</v>
       </c>
       <c r="V16" t="n">
-        <v>63.16750571556869</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542117</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820275</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954277</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345497</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852508</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568056</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.505762629103</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838858</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828871</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161063</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696761</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034456</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813242</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162025</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885337</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431703</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459944</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643916</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931828</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908554</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147768</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804972</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922165</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367757</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920489</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.025404013377</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404468</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273128</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480629</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947755</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714518</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572.212130050281</v>
+        <v>1251.226109956102</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.036628553212</v>
+        <v>858.0506084590322</v>
       </c>
       <c r="D2" t="n">
-        <v>793.5954997698793</v>
+        <v>472.6094796757</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698793</v>
+        <v>70.02595479224448</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282642</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475487</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475487</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>673.899032935483</v>
+        <v>588.487006042435</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572945</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465273</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596795</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737744</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737744</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.28236729716</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U2" t="n">
-        <v>1951.28236729716</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V2" t="n">
-        <v>1951.28236729716</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="W2" t="n">
-        <v>1951.28236729716</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="X2" t="n">
-        <v>1951.28236729716</v>
+        <v>1647.716819035501</v>
       </c>
       <c r="Y2" t="n">
-        <v>1572.212130050281</v>
+        <v>1251.226109956102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021388</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C3" t="n">
-        <v>505.159187462231</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837113</v>
+        <v>275.4495881628895</v>
       </c>
       <c r="E3" t="n">
-        <v>238.623729194599</v>
+        <v>139.0030972737773</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777308</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475487</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475487</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875475</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466456</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182853</v>
+        <v>1877.147508262691</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635808</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535677</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734585</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413227</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784294</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917581</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675928</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431001</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475487</v>
+        <v>1557.751613531083</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475487</v>
+        <v>1462.368552779089</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475487</v>
+        <v>1462.368552779089</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475487</v>
+        <v>1306.809740638291</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475487</v>
+        <v>1306.809740638291</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475487</v>
+        <v>1306.809740638291</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475487</v>
+        <v>1306.809740638291</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475487</v>
+        <v>1173.715315275369</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475487</v>
+        <v>1173.715315275369</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>1255.550356385311</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784965</v>
+        <v>1419.677996259111</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>1605.969574597375</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628584</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670292</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446871</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R4" t="n">
-        <v>828.9941185490466</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S4" t="n">
-        <v>828.9941185490466</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T4" t="n">
-        <v>828.9941185490466</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U4" t="n">
-        <v>543.5553267909476</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V4" t="n">
-        <v>277.5759816117718</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W4" t="n">
-        <v>277.5759816117718</v>
+        <v>1791.8319357481</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475487</v>
+        <v>1557.751613531083</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475487</v>
+        <v>1557.751613531083</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1729.148522214888</v>
+        <v>1788.514187926295</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.973020717819</v>
+        <v>1395.338686429225</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.973020717819</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.973020717819</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477962</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357994</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>430.547049230713</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>923.8673409492418</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1462.126125959333</v>
+        <v>1121.520058314905</v>
       </c>
       <c r="N5" t="n">
-        <v>1989.937409596795</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596795</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596795</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.28236729716</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U5" t="n">
-        <v>1951.28236729716</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V5" t="n">
-        <v>1951.28236729716</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W5" t="n">
-        <v>1729.148522214888</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X5" t="n">
-        <v>1729.148522214888</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Y5" t="n">
-        <v>1729.148522214888</v>
+        <v>2075.162337816922</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284328</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585114</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146763</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737744</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737744</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737744</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>850.4726912546298</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C7" t="n">
-        <v>680.267573320619</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D7" t="n">
-        <v>524.6344602231338</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E7" t="n">
-        <v>369.0756480823364</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F7" t="n">
-        <v>211.7497132953093</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475487</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784965</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>238.4357884694986</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.9426819363074</v>
+        <v>41.50324675633844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2365.64850507718</v>
+        <v>917.7169290643797</v>
       </c>
       <c r="C8" t="n">
-        <v>1989.47786818386</v>
+        <v>917.7169290643797</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>917.7169290643797</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1714.702383855175</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>1318.211674775777</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>177.174714998724</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>177.174714998724</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>177.174714998724</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>336.6041277001235</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>70.62478252094769</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>177.174714998724</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>177.174714998724</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>177.174714998724</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1463.714265689663</v>
+        <v>1621.58371308251</v>
       </c>
       <c r="C11" t="n">
-        <v>1142.335039338787</v>
+        <v>1300.204486731634</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.411388442404</v>
+        <v>986.5596330944957</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185756</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527726</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5075,16 +5075,16 @@
         <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2376.375563693905</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2274.976617580918</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689663</v>
+        <v>1950.282183647713</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>973.7913173233209</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2234.856203156066</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420.1462958193399</v>
+        <v>317.7028133078931</v>
       </c>
       <c r="C13" t="n">
-        <v>420.1462958193399</v>
+        <v>317.7028133078931</v>
       </c>
       <c r="D13" t="n">
-        <v>336.3094578680485</v>
+        <v>233.8659753566017</v>
       </c>
       <c r="E13" t="n">
-        <v>305.4047163160376</v>
+        <v>231.3310632372609</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752044</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027736</v>
@@ -5218,10 +5218,10 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
         <v>1365.712833143251</v>
@@ -5233,16 +5233,16 @@
         <v>988.1475398457735</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127915</v>
+        <v>793.9644698127917</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901629</v>
+        <v>582.4303428901632</v>
       </c>
       <c r="X13" t="n">
-        <v>420.1462958193399</v>
+        <v>582.4303428901632</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.1462958193399</v>
+        <v>431.1145568530004</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1719.577864530541</v>
+        <v>1589.282783693955</v>
       </c>
       <c r="C14" t="n">
-        <v>1398.198638179666</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179666</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185758</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527727</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2672.173528914468</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W14" t="n">
-        <v>2372.970769028949</v>
+        <v>2560.332018113113</v>
       </c>
       <c r="X14" t="n">
-        <v>2372.970769028949</v>
+        <v>2242.675688192363</v>
       </c>
       <c r="Y14" t="n">
-        <v>2048.276335095744</v>
+        <v>1917.981254259159</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.6374311877012</v>
+        <v>474.9551552953891</v>
       </c>
       <c r="C16" t="n">
-        <v>460.2285883998842</v>
+        <v>376.5463125075721</v>
       </c>
       <c r="D16" t="n">
-        <v>376.3917504485928</v>
+        <v>292.7094745562806</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539892</v>
+        <v>208.946937561677</v>
       </c>
       <c r="F16" t="n">
-        <v>207.099553813156</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,19 +5434,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245441</v>
+        <v>1194.272185358985</v>
       </c>
       <c r="V16" t="n">
-        <v>872.2372642956869</v>
+        <v>1000.089115326003</v>
       </c>
       <c r="W16" t="n">
-        <v>872.2372642956869</v>
+        <v>788.5549884033749</v>
       </c>
       <c r="X16" t="n">
-        <v>709.9532172248639</v>
+        <v>626.2709413325518</v>
       </c>
       <c r="Y16" t="n">
-        <v>558.6374311877012</v>
+        <v>474.9551552953891</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5607,7 +5607,7 @@
         <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797591</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5783,7 +5783,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>658.8001958221562</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.571845448837</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1942.349816659396</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1942.349816659396</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567326</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879418</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296498</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6069,19 +6069,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6139,7 +6139,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6160,10 +6160,10 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3427.582880238551</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6263,10 +6263,10 @@
         <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>1504.441740534771</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N27" t="n">
-        <v>2160.21971174533</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="O27" t="n">
-        <v>2391.700393923186</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2359.216916619228</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6361,10 +6361,10 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6382,52 +6382,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6543,13 +6543,13 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222128</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654423</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463654</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.898782305708</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.146589723076</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189318</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076153</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766601</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311925</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1382.319247076792</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1976.493475235815</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873277</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765606</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897128</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038076</v>
+        <v>3303.341514273832</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038076</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908492</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397273</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761237</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.14596739412</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291773</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154194</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.43530700416</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288499</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076153</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K33" t="n">
-        <v>182.6625304604889</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>182.6625304604889</v>
+        <v>870.8603675628848</v>
       </c>
       <c r="M33" t="n">
-        <v>810.4341800871701</v>
+        <v>870.8603675628848</v>
       </c>
       <c r="N33" t="n">
-        <v>1466.212151297729</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.73243388871</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965105</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918646</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237442</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123116</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546494</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834599</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431875</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076153</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076153</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507034</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245032</v>
+        <v>395.3961945636321</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188093</v>
+        <v>581.6877729018961</v>
       </c>
       <c r="N34" t="n">
-        <v>884.291208377089</v>
+        <v>876.5295275080882</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145868</v>
+        <v>1145.033953152044</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649517</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746638</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.62318930858</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420494</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518093</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689359</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395481</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000906</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124386</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584469</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
@@ -6959,19 +6959,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7008,31 +7008,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
         <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885599</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634916</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072687</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
@@ -7108,37 +7108,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918815</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161908</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194235</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330095</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974528</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7175,16 +7175,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7257,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7324,34 +7324,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7388,7 +7388,7 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
@@ -7403,7 +7403,7 @@
         <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,10 +7433,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,10 +7445,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140901</v>
+        <v>193.5145772035926</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8067,16 +8067,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>144.3219646728057</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>291.0031325036219</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,25 +8216,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>387.9085212874494</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321633</v>
+        <v>233.6284767530283</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837478</v>
+        <v>574.4602701392396</v>
       </c>
       <c r="N6" t="n">
-        <v>247.0771922093677</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>524.8175298481927</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>238.0573041899393</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9255,10 +9255,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>292.8810966026122</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,22 +9717,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9951,10 +9951,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9966,13 +9966,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>326.5064297756118</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>123.7997463922346</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,16 +10191,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>663.2434089132773</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,25 +10425,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095478</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10668,22 +10668,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10823,7 +10823,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>505.6668436110179</v>
       </c>
       <c r="L38" t="n">
         <v>651.5514946987026</v>
@@ -10905,22 +10905,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>176.3345925796061</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>236.3339907133476</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>214.0948099696842</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>52.32921748816712</v>
+        <v>80.41534862651019</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>63.11669668449147</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>264.2366820904786</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>125.9374555525527</v>
       </c>
       <c r="V16" t="n">
-        <v>129.0737336170834</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1089405.439201182</v>
+        <v>1088202.343973661</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1089405.439201182</v>
+        <v>1088202.343973661</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>975899.50783015</v>
+        <v>975899.5078301498</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>975899.50783015</v>
+        <v>975899.5078301502</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="C2" t="n">
         <v>216398.6137120281</v>
@@ -26320,13 +26320,13 @@
         <v>216398.6137120282</v>
       </c>
       <c r="E2" t="n">
+        <v>191230.8281092806</v>
+      </c>
+      <c r="F2" t="n">
         <v>191230.8281092805</v>
       </c>
-      <c r="F2" t="n">
-        <v>191230.8281092806</v>
-      </c>
       <c r="G2" t="n">
-        <v>216398.6137120281</v>
+        <v>216398.6137120282</v>
       </c>
       <c r="H2" t="n">
         <v>216398.6137120281</v>
@@ -26335,16 +26335,16 @@
         <v>216398.6137120282</v>
       </c>
       <c r="J2" t="n">
-        <v>216398.6137120281</v>
+        <v>216398.6137120282</v>
       </c>
       <c r="K2" t="n">
         <v>216398.6137120282</v>
       </c>
       <c r="L2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.613712028</v>
       </c>
       <c r="M2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="N2" t="n">
         <v>216398.6137120282</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918555</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062229</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945022</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728584</v>
+        <v>62456.24177539676</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962304</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840233</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840233</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26454,7 +26454,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="P4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.3011400137</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.3011400137</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,13 +26497,13 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173845</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243175.5452038643</v>
+        <v>-238824.0993895697</v>
       </c>
       <c r="C6" t="n">
-        <v>-60970.59691200891</v>
+        <v>-64965.44235551462</v>
       </c>
       <c r="D6" t="n">
-        <v>-68138.91793368038</v>
+        <v>-75875.20715707159</v>
       </c>
       <c r="E6" t="n">
-        <v>-99779.42055696908</v>
+        <v>-99989.15210365862</v>
       </c>
       <c r="F6" t="n">
-        <v>12343.14091707549</v>
+        <v>12133.40937038586</v>
       </c>
       <c r="G6" t="n">
-        <v>-62657.06512412042</v>
+        <v>-62657.06512412019</v>
       </c>
       <c r="H6" t="n">
-        <v>-15231.73958743838</v>
+        <v>-15231.73958743829</v>
       </c>
       <c r="I6" t="n">
-        <v>-15231.73958743821</v>
+        <v>-15231.73958743826</v>
       </c>
       <c r="J6" t="n">
-        <v>-228273.6571847234</v>
+        <v>-221757.3720301505</v>
       </c>
       <c r="K6" t="n">
-        <v>-21471.50799022121</v>
+        <v>-21471.50799022118</v>
       </c>
       <c r="L6" t="n">
-        <v>-76654.09692484258</v>
+        <v>-80702.93413531472</v>
       </c>
       <c r="M6" t="n">
-        <v>-57432.56904706128</v>
+        <v>-58484.26405824945</v>
       </c>
       <c r="N6" t="n">
-        <v>-15231.73958743823</v>
+        <v>-15231.73958743824</v>
       </c>
       <c r="O6" t="n">
         <v>-42999.43363020942</v>
       </c>
       <c r="P6" t="n">
-        <v>-15231.73958743821</v>
+        <v>-15231.73958743823</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,10 +26713,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344359</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344359</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,31 +26802,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095191</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466073</v>
+        <v>78.07030221924595</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551309</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344359</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485913</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773699</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407413</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344359</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485913</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>393.5191410866519</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.24626711419444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>75.55601749164262</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270799</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>74.07383661019686</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27555,7 +27555,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>7.872901720360588</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27591,13 +27591,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>112.7081298625619</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27676,7 +27676,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>147.3765380499459</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862745</v>
+        <v>124.5704364758558</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.83064772952746</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27822,19 +27822,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>85.53388175210566</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>16.83481595771138</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>358.6143923036121</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27916,10 +27916,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>25.44009657118096</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>257.4184037529241</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,10 +28755,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.636002634527898</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28980,25 +28980,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>35.71049010668722</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29232,13 +29232,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634528936</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29296,10 +29296,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901209</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
@@ -29308,13 +29308,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901232</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
         <v>93.99127447431646</v>
@@ -29533,16 +29533,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>30.2722376590126</v>
+      </c>
+      <c r="M29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>30.27223765901226</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>48.65992738832608</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>81.10808140893317</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>94.97643844044654</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000712</v>
+        <v>106.8683420224722</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000712</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000712</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733466</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30180,37 +30180,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.6360026345302</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,31 +30639,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>35.71049010668816</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,14 +30876,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>138.4677594163629</v>
+        <v>43.78952560586532</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>58.94985181863902</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>200.0149793477079</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>244.8501181082121</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344359</v>
+        <v>83.90342515530108</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344359</v>
+        <v>482.0731480899277</v>
       </c>
       <c r="N6" t="n">
-        <v>161.705079355201</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>432.4304077988809</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>147.0691510340253</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35975,10 +35975,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,10 +36051,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716068</v>
+        <v>200.0587396437669</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>205.7977317832975</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>223.8838015594792</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,7 +36294,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36437,22 +36437,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36528,13 +36528,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724871</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,13 +36604,13 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36686,13 +36686,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>233.8188708867229</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>32.81159323632065</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101038</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36911,16 +36911,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>570.8562868639655</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261602</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318509</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682823</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>600.1759880394176</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184962</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>267.8207684199923</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537668</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553812</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055088</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>283.1497498932385</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.37649167503</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371501</v>
+        <v>271.216591559551</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380294</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102237</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
-        <v>1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724884</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37625,22 +37625,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>86.27424572268784</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
